--- a/MKT_Selenium_Assignments/TestData/Shiv.xlsx
+++ b/MKT_Selenium_Assignments/TestData/Shiv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\MKT_Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\MKT_Selenium_Assignments\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFFE2BC-2922-41CF-A516-1A8DE48405C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EAF66FD-7601-490D-BA8C-5134CF591F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>username</t>
   </si>
@@ -37,13 +37,40 @@
   </si>
   <si>
     <t>something</t>
+  </si>
+  <si>
+    <t>fname;</t>
+  </si>
+  <si>
+    <t>lname;</t>
+  </si>
+  <si>
+    <t>P_Address;</t>
+  </si>
+  <si>
+    <t>Prmnt_Address;</t>
+  </si>
+  <si>
+    <t>pincode;</t>
+  </si>
+  <si>
+    <t>Shiva</t>
+  </si>
+  <si>
+    <t>Kumar</t>
+  </si>
+  <si>
+    <t>Somewhere On Earch</t>
+  </si>
+  <si>
+    <t>Sometwhere, in inida #8751t, laujno.,m,agupqguq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +85,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -81,9 +114,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -365,16 +404,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -396,6 +435,46 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>567483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
+        <v>564897</v>
       </c>
     </row>
   </sheetData>
